--- a/47-Encounter Effects 遭遇效果.xlsx
+++ b/47-Encounter Effects 遭遇效果.xlsx
@@ -4,20 +4,146 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Note标签" sheetId="1" r:id="rId1"/>
-    <sheet name="条件分支用法" sheetId="2" r:id="rId2"/>
-    <sheet name="插件指令" sheetId="3" r:id="rId3"/>
-    <sheet name="插件参数" sheetId="4" r:id="rId4"/>
+    <sheet name="说明" sheetId="5" r:id="rId1"/>
+    <sheet name="Note标签" sheetId="1" r:id="rId2"/>
+    <sheet name="条件分支用法" sheetId="2" r:id="rId3"/>
+    <sheet name="插件指令" sheetId="3" r:id="rId4"/>
+    <sheet name="插件参数" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>刘鹏</author>
+  </authors>
+  <commentList>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Duration: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">每个战斗转换的持续时间是多少帧。
+  - 60 帧数 = 1 秒
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="150">
+  <si>
+    <t>随机遭遇和屏幕上的遭遇在RPG Maker MZ中都非常有限。这个插件通过添加一些独特的效果来扩展它们的功能。</t>
+  </si>
+  <si>
+    <t>这两种类型的遭遇都可以从对先发制人和突袭的发生有更多的控制中受益。这些可以通过插件命令强制执行，并在队列中设置。</t>
+  </si>
+  <si>
+    <t>屏幕上的遭遇可以利用警报功能，一旦玩家进入其可见的检测范围内，就会导致事件追逐玩家（或逃离玩家）。</t>
+  </si>
+  <si>
+    <t>屏幕上的相遇还可以利用添加的新功能与条件分支一起使用，以确定玩家从哪个方向接近屏幕上的遭遇事件。</t>
+  </si>
+  <si>
+    <t>随机遭遇可以利用排斥和引诱效果来取消一定数量的步骤中的任何随机遭遇，或提高其发生率。</t>
+  </si>
+  <si>
+    <t>功能包括以下所有（但不限于）：</t>
+  </si>
+  <si>
+    <t>·掌握战斗优势。要么实施先发制人的攻击，要么实施突袭，要么不采取行动。</t>
+  </si>
+  <si>
+    <t>·可以在队列中设置战斗优势，以获得更有趣的游戏体验。</t>
+  </si>
+  <si>
+    <t>·如果玩家在其视线范围内行走，则可以为事件提供警报功能，以追捕玩家。</t>
+  </si>
+  <si>
+    <t>·使用地形标签和区域设置瓷砖，通过视线使用来阻挡检测范围。</t>
+  </si>
+  <si>
+    <t>·事件可以在触及追随者而不仅仅是玩家时触发。</t>
+  </si>
+  <si>
+    <t>·事件在交互时可以将自己锁定在所面对的方向上，从而更容易应用侧面攻击和背部攻击效果。</t>
+  </si>
+  <si>
+    <t>·随机遭遇可以通过击退效果绕过。</t>
+  </si>
+  <si>
+    <t>·增加具有引诱效果的随机遭遇率。</t>
+  </si>
+  <si>
+    <t>Major Changes    重大改变</t>
+  </si>
+  <si>
+    <t>Battle Advantage  战斗优势</t>
+  </si>
+  <si>
+    <t>在以强制优势开始战斗时，任何通过其他方式进行的计算将被覆盖，以支持声明的强制优势。</t>
+  </si>
+  <si>
+    <t>Game_Player.encounterProgressValue</t>
+  </si>
+  <si>
+    <t>此功能已被覆盖，以便更灵活地应用通过各种效果应用的乘数和效果，并允许排斥和诱惑效果尽可能地发挥作用。</t>
+  </si>
+  <si>
+    <t>Game_Event.updateSelfMovement</t>
+  </si>
+  <si>
+    <t>当事件设置为在受到警报后追逐或逃离玩家时，该函数的原始代码将被忽略。
+警报和返回期结束后，自身运动将恢复正常。</t>
+  </si>
+  <si>
+    <t>Scene_Map Encounter Effect</t>
+  </si>
+  <si>
+    <t>For:</t>
+  </si>
+  <si>
+    <t>Scene_Map.startEncounterEffect</t>
+  </si>
+  <si>
+    <t>Scene_Map.updateEncounterEffect</t>
+  </si>
+  <si>
+    <t>为了实现该插件 1.11 版本中添加的新战斗转换，这些功能将发生重大改变。</t>
+  </si>
   <si>
     <t>Battle Advantage-Related Tags  战斗优势 相关标签</t>
   </si>
@@ -1099,6 +1225,27 @@
     </r>
   </si>
   <si>
+    <t>Battle Transition Plugin Commands  战斗过渡</t>
+  </si>
+  <si>
+    <t>Battle Transition: Change Type</t>
+  </si>
+  <si>
+    <t>更改战斗过渡类型。</t>
+  </si>
+  <si>
+    <t>预览</t>
+  </si>
+  <si>
+    <t>http://www.yanfly.moe/wiki/Encounter_Effects_VisuStella_MZ#Battle_Transition_Preview</t>
+  </si>
+  <si>
+    <t>Battle Transition: Duration</t>
+  </si>
+  <si>
+    <t>更改战斗过渡持续时间。</t>
+  </si>
+  <si>
     <t>Advantage Settings  优势设置</t>
   </si>
   <si>
@@ -1123,28 +1270,75 @@
     <t>Bush Multiplier</t>
   </si>
   <si>
+    <t>灌木系数：玩家在灌木丛中穿行时，遭遇速度的倍增。</t>
+  </si>
+  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>灌木系数：玩家在灌木丛中穿行时，遭遇速度的倍增。</t>
-  </si>
-  <si>
     <t>Boat Multiplier</t>
   </si>
   <si>
+    <t>小船系数：玩家乘小船旅行时，则偶遇速度的倍增。</t>
+  </si>
+  <si>
     <t>1.00</t>
   </si>
   <si>
-    <t>小船系数：玩家乘小船旅行时，则偶遇速度的倍增。</t>
-  </si>
-  <si>
     <t>Ship Multiplier</t>
   </si>
   <si>
+    <t>大船系数：玩家乘大船旅行时，则偶遇速度的倍增。</t>
+  </si>
+  <si>
     <t>0.50</t>
   </si>
   <si>
-    <t>大船系数：玩家乘大船旅行时，则偶遇速度的倍增。</t>
+    <t>Battle Transition Settings  战斗过渡设置</t>
+  </si>
+  <si>
+    <t>从该插件的1.11版本更新开始，您现在可以更改进入战斗前使用的战斗过渡。</t>
+  </si>
+  <si>
+    <t>Default Battle Transition:</t>
+  </si>
+  <si>
+    <t>默认战斗过渡。
+可通过插件命令更改。
+Random：    随机
+Aberration：色差（需要PIXI JS过滤器）
+Block：     屏蔽
+Blur：      模糊明亮扩散
+Glitch：    Glitchy屏幕（需要PIXI JS过滤器）
+Hue：       色调偏移缩放
+Pixel：     像素屏幕（需要PIXI JS过滤器）
+Spiral：    螺旋筛（需要PIXI JS过滤器）
+Static：    静态噪声衰减（需要PIXI JS过滤器）
+Twirl：     Twirls屏幕（需要PIXI JS过滤器）
+Warp：      翘曲速度扩散（需要PIXI JS过滤器）
+Zoom：      RPG Maker MZ默认过渡</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Warp</t>
+  </si>
+  <si>
+    <t>Duration:</t>
+  </si>
+  <si>
+    <t>每个战斗转换持续多少帧？60帧=1秒</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Random List:</t>
+  </si>
+  <si>
+    <t>随机列表。选择用于"random"的战斗过渡类型。
+PIXI JS过滤器类型如果不可用，将被删除。</t>
   </si>
   <si>
     <t>Repel/Lure Settings  排斥/诱饵 设置</t>
@@ -1220,9 +1414,6 @@
     <t xml:space="preserve">  Lure Multiplier</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1245,6 +1436,9 @@
       <t xml:space="preserve">
 当诱饵效果激活时，遭遇速度的倍增。</t>
     </r>
+  </si>
+  <si>
+    <t>4.0</t>
   </si>
   <si>
     <t xml:space="preserve">  Lure Increase</t>
@@ -1277,14 +1471,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1332,31 +1526,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1368,11 +1558,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1385,41 +1606,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1470,16 +1659,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1491,14 +1694,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1560,6 +1763,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
@@ -1567,8 +1777,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1577,31 +1798,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,19 +1822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,31 +1840,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1691,6 +1876,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1703,7 +1900,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,7 +1948,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,6 +1984,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1768,21 +2007,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1815,6 +2039,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1873,152 +2112,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2026,6 +2265,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2034,76 +2282,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2410,10 +2673,161 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="107.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" s="15" customFormat="1" ht="20.25" spans="1:1">
+      <c r="A16" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" s="16" customFormat="1" spans="1:1">
+      <c r="A17" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" s="16" customFormat="1" spans="1:1">
+      <c r="A20" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" s="16" customFormat="1" spans="1:1">
+      <c r="A23" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="2:2">
+      <c r="B24" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" s="16" customFormat="1" spans="1:1">
+      <c r="A26" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2425,353 +2839,278 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="39" spans="1:3">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" ht="18.75" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="25.5" spans="1:3">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="39" spans="1:3">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:3">
-      <c r="A14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:3">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="37.5" spans="1:3">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:3">
-      <c r="A17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>28</v>
+      <c r="A17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="75" spans="1:3">
-      <c r="A18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>30</v>
+      <c r="A18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="219" spans="1:4">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>32</v>
+        <v>57</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="39" spans="1:3">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="39" spans="1:3">
       <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>37</v>
+        <v>62</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="75" spans="1:3">
-      <c r="A22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="23" ht="51" spans="1:3">
-      <c r="A23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>41</v>
+      <c r="A23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="39" spans="1:3">
       <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>43</v>
+        <v>68</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" ht="40.5" spans="1:3">
       <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>45</v>
+        <v>70</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:3">
       <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>47</v>
+        <v>72</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" ht="18.75" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" ht="52.5" spans="1:3">
-      <c r="A29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>50</v>
+      <c r="A29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" ht="52.5" spans="1:3">
-      <c r="A30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>53</v>
+      <c r="A30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="70" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2784,58 +3123,69 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="47.375" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>70</v>
+      <c r="A3" t="s">
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:1">
-      <c r="A6" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" ht="40.5" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>76</v>
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2848,172 +3198,320 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="31.75" customWidth="1"/>
+    <col min="2" max="2" width="47.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:1">
+      <c r="A6" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:1">
+      <c r="A9" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId3" display="http://www.yanfly.moe/wiki/Encounter_Effects_VisuStella_MZ#Battle_Transition_Preview"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="47.25" customWidth="1"/>
+    <col min="2" max="2" width="47.25" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2">
+        <v>111</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3">
+        <v>112</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4">
+        <v>113</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" spans="1:1">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" customFormat="1" ht="18.75" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" ht="40.5" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" ht="189" spans="1:4">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="1:3">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="21" ht="18.75" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" ht="40.5" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22">
         <v>31</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" ht="27" spans="1:3">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16">
+    </row>
+    <row r="23" ht="27" spans="1:3">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23">
         <v>6</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" ht="40.5" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18">
+    </row>
+    <row r="25" ht="40.5" spans="1:3">
+      <c r="A25" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25">
         <v>32</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="1:3">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19">
+    </row>
+    <row r="26" ht="27" spans="1:3">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26">
         <v>8</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" ht="27" spans="1:3">
-      <c r="A20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" ht="27" spans="1:3">
-      <c r="A21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21">
+    </row>
+    <row r="27" ht="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:3">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28">
         <v>1</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B10:B12" numberStoredAsText="1"/>
+    <ignoredError sqref="C10:C12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>